--- a/ky-024_interrupts/calculo de ecuacion lineal km_hora.xlsx
+++ b/ky-024_interrupts/calculo de ecuacion lineal km_hora.xlsx
@@ -35,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,6 +62,11 @@
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -190,7 +195,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -239,11 +244,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>Hoja1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>velocidad (km/h)</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,47 +316,47 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Hoja1!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$4</c:f>
+              <c:f>Hoja1!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.8</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="23527916"/>
-        <c:axId val="28394524"/>
+        <c:axId val="3797418"/>
+        <c:axId val="57295627"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23527916"/>
+        <c:axId val="3797418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,12 +398,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28394524"/>
+        <c:crossAx val="57295627"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28394524"/>
+        <c:axId val="57295627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +445,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23527916"/>
+        <c:crossAx val="3797418"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -473,15 +478,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>157680</xdr:colOff>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>156960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:colOff>265680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -489,8 +494,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9036000" y="842040"/>
-        <a:ext cx="6095520" cy="2743200"/>
+        <a:off x="9145080" y="909000"/>
+        <a:ext cx="6095160" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -508,17 +513,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +549,32 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="n">
+        <v>909</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">0.036*F28+3.258</f>
+        <v>35.982</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
